--- a/Projects/SANOFICM/Data/Template.xlsx
+++ b/Projects/SANOFICM/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="81">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -849,9 +849,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rhinathiol Promethazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol SS Adult</t>
   </si>
   <si>
     <t xml:space="preserve">Cough and Cold </t>
@@ -867,7 +864,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1036,6 +1033,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1162,7 +1166,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1379,6 +1383,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1391,7 +1399,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1481,14 +1489,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.080971659919"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.587044534413"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.587044534413"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,19 +1754,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.4412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.4453441295547"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.5384615384615"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="19.3441295546559"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2053,12 +2061,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="31.9514170040486"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="17.753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="26.4453441295547"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="32.8056680161943"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2071,6 +2079,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -2228,18 +2237,18 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="38.4412955465587"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="30.9716599190283"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.1821862348178"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="33" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="33" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2390,20 +2399,20 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="37.2145748987854"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="27.2995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="41" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="38.1902834008097"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="27.9068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="41" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2529,21 +2538,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="32.0728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="44.4412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="19.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="27.0566801619433"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="48" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="49" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="32.9271255060729"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="45.5384615384615"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="27.663967611336"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="48" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="49" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2738,8 +2747,8 @@
       <c r="E9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="51" t="n">
-        <v>2</v>
+      <c r="F9" s="54" t="n">
+        <v>1</v>
       </c>
       <c r="G9" s="51" t="n">
         <v>1</v>
@@ -2815,112 +2824,112 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="21" t="n">
-        <v>3582910062189</v>
+      <c r="A13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="57" t="n">
+        <v>3582910075820</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="56" t="n">
-        <v>3582910075820</v>
+      <c r="B14" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="57" t="n">
+        <v>3582910075813</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="51" t="n">
+      <c r="F14" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="51" t="n">
+      <c r="G14" s="54" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="56" t="n">
-        <v>3582910075813</v>
+      <c r="B15" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <v>3582910075820</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="58" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>70</v>
+      <c r="B16" s="56" t="s">
+        <v>71</v>
       </c>
       <c r="C16" s="21" t="n">
-        <v>3582910075820</v>
+        <v>3582910075813</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="58" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>71</v>
+      <c r="B17" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="C17" s="21" t="n">
-        <v>3582910075813</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>39</v>
+        <v>3582910022084</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="F17" s="51" t="n">
         <v>4</v>
@@ -2930,51 +2939,29 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>74</v>
+      <c r="B18" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="C18" s="21" t="n">
-        <v>3582910022084</v>
+        <v>3582910012153</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" s="51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="21" t="n">
-        <v>3582910012153</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" s="51" t="n">
-        <v>4</v>
-      </c>
-    </row>
+        <v>80</v>
+      </c>
+      <c r="F18" s="54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>

--- a/Projects/SANOFICM/Data/Template.xlsx
+++ b/Projects/SANOFICM/Data/Template.xlsx
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">DOLIPRANE 1G Effervescent</t>
+    <t xml:space="preserve">Doliprane 1G Effervescent</t>
   </si>
   <si>
     <t xml:space="preserve">Doliprane</t>
@@ -731,19 +731,19 @@
     <t xml:space="preserve">Pain</t>
   </si>
   <si>
-    <t xml:space="preserve">DOLIPRANE 500mg Effervescent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOLIPRANE 300mg Pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPEGIC 100MG PWD</t>
+    <t xml:space="preserve">Doliprane 500mg Effervescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doliprane 300mg Pwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspegic 100MG PWD</t>
   </si>
   <si>
     <t xml:space="preserve">Aspegic</t>
   </si>
   <si>
-    <t xml:space="preserve">MAALOX stick pack 4,3ml </t>
+    <t xml:space="preserve">Maalox stick pack 4,3ml </t>
   </si>
   <si>
     <t xml:space="preserve">Maalox</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">Digestive Health</t>
   </si>
   <si>
-    <t xml:space="preserve">MAALOX Syrup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAALOX TABS 400MG #20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHINATHIOL 300ml Adult</t>
+    <t xml:space="preserve">Maalox  Syrup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maalox Tabs 400MG #20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinathiol 300ml Adult</t>
   </si>
   <si>
     <t xml:space="preserve">Rhinathiol</t>
@@ -767,34 +767,31 @@
     <t xml:space="preserve">Cough and Cold</t>
   </si>
   <si>
-    <t xml:space="preserve">RHINATHIOL125ml Enfant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHINATHIOL Promethazine</t>
+    <t xml:space="preserve">Rhinathiol 125ml Enfant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinathiol Promethazine</t>
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">DOLIPRANE 1G Effervescent, DOLIPRANE 500mg Effervescent, DOLIPRANE 300mg Pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910075820, 3582910075813, 3582910076155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910020462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAALOX stick pack 4,3ml, MAALOX Syrup, MAALOX TABS 400MG #20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910022084, 3582910014867, 3582910066163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHINATHIOL 300ml Adult, RHINATHIOL125ml Enfant, RHINATHIOL Promethazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910012153, 3582910032892, 3582910020967</t>
+    <t xml:space="preserve">Doliprane 1G Effervescent ,Doliprane 500mg Effervescent ,Doliprane 300mg Pwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3582910075820 ,3582910075813 ,3582910076155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maalox stick pack 4,3ml ,Maalox Syrup ,Maalox Tabs 400MG #20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3582910022084 ,3582910014867 ,3582910066163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinathiol 300ml Adult ,Rhinathiol 125ml Enfant ,Rhinathiol Promethazine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3582910012153 ,3582910032892 ,3582910020967 </t>
   </si>
   <si>
     <t xml:space="preserve">Cameroon Doliprane CTU</t>
@@ -821,37 +818,10 @@
     <t xml:space="preserve">Multicategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Doliprane 1G Effervescent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doliprane 500mg Effervescent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doliprane 300mg Pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspegic 100MG PWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maalox stick pack 4,3ml </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maalox Syrup</t>
   </si>
   <si>
-    <t xml:space="preserve">Maalox Tabs 400MG #20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol 300ml Adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol 125ml Enfant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol Promethazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cough and Cold </t>
+    <t xml:space="preserve">Product Minimum Facings Secondary </t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1016,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,7 +1044,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
@@ -1113,6 +1083,12 @@
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF8FAADC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
@@ -1166,7 +1142,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1319,12 +1295,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1375,10 +1347,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1401,6 +1369,10 @@
     </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1462,7 +1434,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFA5A5A5"/>
       <rgbColor rgb="FF002060"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1484,19 +1456,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="A3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0728744939271"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.2024291497976"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0404858299595"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.66801619433198"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,19 +1726,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.4453441295547"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.5384615384615"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="19.3441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="27.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="46.6477732793522"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1803,7 +1775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
@@ -1826,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -1849,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
@@ -1872,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
         <v>23</v>
       </c>
@@ -1895,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1918,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
@@ -1941,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
@@ -1964,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
@@ -1987,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
@@ -2010,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -2056,17 +2028,17 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="A3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="26.4453441295547"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="32.8056680161943"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="27.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="33.5425101214575"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2237,18 +2209,18 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="A3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="39.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="33" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="32.4412955465587"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="33" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2285,7 +2257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
@@ -2298,17 +2270,17 @@
       <c r="D3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
         <v>14</v>
       </c>
@@ -2321,13 +2293,13 @@
       <c r="D4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="39" t="n">
+      <c r="E4" s="21" t="n">
+        <v>3582910020462</v>
+      </c>
+      <c r="F4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,19 +2314,19 @@
         <v>46</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="29.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
         <v>14</v>
       </c>
@@ -2365,15 +2337,15 @@
         <v>51</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="39" t="n">
+      <c r="F6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2400,19 +2372,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="A3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="38.1902834008097"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="41" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="39.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="28.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="28.0364372469636"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="20.1943319838057"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2427,89 +2399,89 @@
       <c r="G1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="C4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="F4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B5" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="47" t="s">
+      <c r="C5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>68</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>69</v>
       </c>
       <c r="F5" s="30" t="n">
         <v>1</v>
@@ -2541,18 +2513,18 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="32.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="45.5384615384615"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="18.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="27.663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="48" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="49" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="47" width="33.663967611336"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="47" width="46.6477732793522"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="47" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="48" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2568,35 +2540,35 @@
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C3" s="21" t="n">
         <v>3582910075820</v>
@@ -2607,20 +2579,20 @@
       <c r="E3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="51" t="n">
+      <c r="F3" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="52" t="n">
+      <c r="G3" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="53"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C4" s="21" t="n">
         <v>3582910075813</v>
@@ -2631,20 +2603,20 @@
       <c r="E4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="51" t="n">
+      <c r="F4" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="52" t="n">
+      <c r="G4" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C5" s="21" t="n">
         <v>3582910076155</v>
@@ -2655,19 +2627,19 @@
       <c r="E5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="51" t="n">
+      <c r="F5" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="51" t="n">
+      <c r="G5" s="50" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C6" s="21" t="n">
         <v>3582910020462</v>
@@ -2678,19 +2650,19 @@
       <c r="E6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="51" t="n">
+      <c r="F6" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="51" t="n">
+      <c r="G6" s="50" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C7" s="21" t="n">
         <v>3582910022084</v>
@@ -2701,19 +2673,19 @@
       <c r="E7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="51" t="n">
+      <c r="F7" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="51" t="n">
+      <c r="G7" s="50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" s="21" t="n">
         <v>3582910014867</v>
@@ -2724,19 +2696,19 @@
       <c r="E8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="51" t="n">
+      <c r="F8" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="51" t="n">
+      <c r="G8" s="50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C9" s="21" t="n">
         <v>3582910066163</v>
@@ -2747,19 +2719,19 @@
       <c r="E9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="51" t="n">
+      <c r="F9" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C10" s="21" t="n">
         <v>3582910012153</v>
@@ -2770,19 +2742,19 @@
       <c r="E10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="51" t="n">
+      <c r="F10" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C11" s="21" t="n">
         <v>3582910032892</v>
@@ -2793,19 +2765,19 @@
       <c r="E11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="51" t="n">
+      <c r="F11" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C12" s="21" t="n">
         <v>3582910020967</v>
@@ -2816,65 +2788,65 @@
       <c r="E12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="51" t="n">
+      <c r="F12" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="57" t="n">
+      <c r="B13" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="55" t="n">
         <v>3582910075820</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="51" t="n">
+      <c r="F13" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="51" t="n">
+      <c r="G13" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="57" t="n">
+      <c r="A14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="55" t="n">
         <v>3582910075813</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="54" t="n">
+      <c r="F14" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="54" t="n">
+      <c r="G14" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>70</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="21" t="n">
         <v>3582910075820</v>
@@ -2882,22 +2854,22 @@
       <c r="D15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="51" t="n">
+      <c r="F15" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="51" t="n">
+      <c r="G15" s="50" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>71</v>
+      <c r="A16" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="21" t="n">
         <v>3582910075813</v>
@@ -2905,22 +2877,22 @@
       <c r="D16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="51" t="n">
+      <c r="F16" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="51" t="n">
+      <c r="G16" s="50" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>74</v>
+      <c r="A17" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="21" t="n">
         <v>3582910022084</v>
@@ -2931,19 +2903,19 @@
       <c r="E17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="51" t="n">
+      <c r="F17" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="51" t="n">
+      <c r="G17" s="50" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>77</v>
+      <c r="A18" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="21" t="n">
         <v>3582910012153</v>
@@ -2952,12 +2924,12 @@
         <v>50</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="54" t="n">
+        <v>51</v>
+      </c>
+      <c r="F18" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="54" t="n">
+      <c r="G18" s="52" t="n">
         <v>3</v>
       </c>
     </row>

--- a/Projects/SANOFICM/Data/Template.xlsx
+++ b/Projects/SANOFICM/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="65">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -774,24 +774,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doliprane 1G Effervescent ,Doliprane 500mg Effervescent ,Doliprane 300mg Pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910075820 ,3582910075813 ,3582910076155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maalox stick pack 4,3ml ,Maalox Syrup ,Maalox Tabs 400MG #20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910022084 ,3582910014867 ,3582910066163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol 300ml Adult ,Rhinathiol 125ml Enfant ,Rhinathiol Promethazine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910012153 ,3582910032892 ,3582910020967 </t>
   </si>
   <si>
     <t xml:space="preserve">Cameroon Doliprane CTU</t>
@@ -1142,7 +1124,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1288,14 +1270,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1345,6 +1319,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1456,19 +1434,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="A3:G18"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0404858299595"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.8097165991903"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.74898785425101"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,18 +1704,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:G18"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="27.0566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="46.6477732793522"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -2028,16 +2006,16 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="A3:G18"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="27.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="22.8947368421053"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="33.5425101214575"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="22.8947368421053"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -2207,19 +2185,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="A3:G18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="32.4412955465587"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.8744939271255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="33" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -2255,98 +2233,6 @@
       </c>
       <c r="G2" s="26" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="21" t="n">
-        <v>3582910020462</v>
-      </c>
-      <c r="F4" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="38" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2372,19 +2258,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="A3:G18"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="39.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="28.5222672064777"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="28.0364372469636"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="20.1943319838057"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="38" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2399,89 +2285,89 @@
       <c r="G1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="E5" s="43" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>68</v>
       </c>
       <c r="F5" s="30" t="n">
         <v>1</v>
@@ -2512,19 +2398,19 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:G18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="47" width="33.663967611336"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="47" width="46.6477732793522"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="47" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="48" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="33.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="45" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="46" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2540,31 +2426,31 @@
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -2579,16 +2465,16 @@
       <c r="E3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="50" t="n">
+      <c r="F3" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="38" t="n">
+      <c r="G3" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2603,16 +2489,16 @@
       <c r="E4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="50" t="n">
+      <c r="F4" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="38" t="n">
+      <c r="G4" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2627,15 +2513,15 @@
       <c r="E5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="50" t="n">
+      <c r="F5" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="50" t="n">
+      <c r="G5" s="48" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2650,15 +2536,15 @@
       <c r="E6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="50" t="n">
+      <c r="F6" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="50" t="n">
+      <c r="G6" s="48" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -2673,19 +2559,19 @@
       <c r="E7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="50" t="n">
+      <c r="F7" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="50" t="n">
+      <c r="G7" s="48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C8" s="21" t="n">
         <v>3582910014867</v>
@@ -2696,15 +2582,15 @@
       <c r="E8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="50" t="n">
+      <c r="F8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="50" t="n">
+      <c r="G8" s="48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -2719,15 +2605,15 @@
       <c r="E9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50" t="n">
+      <c r="F9" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -2742,15 +2628,15 @@
       <c r="E10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="50" t="n">
+      <c r="F10" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -2765,15 +2651,15 @@
       <c r="E11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="50" t="n">
+      <c r="F11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2788,64 +2674,64 @@
       <c r="E12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="50" t="n">
+      <c r="F12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="55" t="n">
+      <c r="C13" s="54" t="n">
         <v>3582910075820</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="50" t="n">
+      <c r="F13" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="50" t="n">
+      <c r="G13" s="48" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="55" t="n">
+      <c r="C14" s="54" t="n">
         <v>3582910075813</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="52" t="n">
+      <c r="F14" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="52" t="n">
+      <c r="G14" s="51" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="53" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="21" t="n">
@@ -2854,21 +2740,21 @@
       <c r="D15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="50" t="n">
+      <c r="F15" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="50" t="n">
+      <c r="G15" s="48" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="21" t="n">
@@ -2877,21 +2763,21 @@
       <c r="D16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="50" t="n">
+      <c r="F16" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="50" t="n">
+      <c r="G16" s="48" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="21" t="n">
@@ -2903,18 +2789,18 @@
       <c r="E17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="50" t="n">
+      <c r="F17" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="50" t="n">
+      <c r="G17" s="48" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="21" t="n">
@@ -2926,10 +2812,10 @@
       <c r="E18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="52" t="n">
+      <c r="F18" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="52" t="n">
+      <c r="G18" s="51" t="n">
         <v>3</v>
       </c>
     </row>
